--- a/curve/Loss.xlsx
+++ b/curve/Loss.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RetinaFace\Pytorch_Retinaface\curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C04F78-C79A-464F-A074-0BAC088FB974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3141082-46AE-4ECF-BD54-6E268D85CCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Epoch</t>
   </si>
@@ -38,6 +35,18 @@
   </si>
   <si>
     <t>mobilenet0.25_epoch10_b8_lr0.001_optAdam Validation Loss</t>
+  </si>
+  <si>
+    <t>mobilenet0.25_epoch10_b8_lr0.01_optAdam Train Loss</t>
+  </si>
+  <si>
+    <t>mobilenet0.25_epoch10_b8_lr0.01_optAdam Validation Loss</t>
+  </si>
+  <si>
+    <t>mobilenet0.25_epoch10_b8_lr0.1_optAdam Train Loss</t>
+  </si>
+  <si>
+    <t>mobilenet0.25_epoch10_b8_lr0.1_optAdam Validation Loss</t>
   </si>
   <si>
     <t>mobilenet0.25_epoch10_b8_lr1e-05_optAdam Train Loss</t>
@@ -58,10 +67,25 @@
     <t>Resnet50_epoch10_b8_lr0.001_optAdam Validation Loss</t>
   </si>
   <si>
+    <t>Resnet50_epoch10_b8_lr0.01_optAdam Train Loss</t>
+  </si>
+  <si>
+    <t>Resnet50_epoch10_b8_lr0.01_optAdam Validation Loss</t>
+  </si>
+  <si>
+    <t>Resnet50_epoch10_b8_lr0.1_optAdam Train Loss</t>
+  </si>
+  <si>
+    <t>Resnet50_epoch10_b8_lr0.1_optAdam Validation Loss</t>
+  </si>
+  <si>
     <t>Resnet50_epoch10_b8_lr1e-05_optAdam Train Loss</t>
   </si>
   <si>
     <t>Resnet50_epoch10_b8_lr1e-05_optAdam Validation Loss</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -207,7 +231,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -216,45 +240,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$11</c:f>
@@ -297,7 +282,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D76F-455D-B7B0-08FFBBC7D0FE}"/>
+              <c16:uniqueId val="{00000000-5F2B-425B-A30F-0255E3D4E34A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -318,9 +303,8 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -328,45 +312,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$11</c:f>
@@ -409,7 +354,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D76F-455D-B7B0-08FFBBC7D0FE}"/>
+              <c16:uniqueId val="{00000001-5F2B-425B-A30F-0255E3D4E34A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -430,7 +375,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FFC000"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -439,45 +384,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$11</c:f>
@@ -487,6 +393,9 @@
                 <c:pt idx="0">
                   <c:v>23.076471676737601</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>13.3531943818797</c:v>
                 </c:pt>
@@ -501,6 +410,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10.7270465870821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9.4206678097292507</c:v>
@@ -514,7 +426,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D76F-455D-B7B0-08FFBBC7D0FE}"/>
+              <c16:uniqueId val="{00000002-5F2B-425B-A30F-0255E3D4E34A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -535,9 +447,8 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FFC000"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -545,45 +456,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$2:$E$11</c:f>
@@ -626,7 +498,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D76F-455D-B7B0-08FFBBC7D0FE}"/>
+              <c16:uniqueId val="{00000003-5F2B-425B-A30F-0255E3D4E34A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -639,7 +511,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mobilenet0.25_epoch10_b8_lr1e-05_optAdam Train Loss</c:v>
+                  <c:v>mobilenet0.25_epoch10_b8_lr0.01_optAdam Train Loss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -647,7 +519,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -656,45 +528,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$2:$F$11</c:f>
@@ -702,34 +535,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40.472926347151997</c:v>
+                  <c:v>22.488575314142601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.166020168280703</c:v>
+                  <c:v>16.688840004227899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.944820849791803</c:v>
+                  <c:v>15.499607188361001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.5231732418818</c:v>
+                  <c:v>14.966641082526699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.6207471041945</c:v>
+                  <c:v>14.655045487125401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.793402067622701</c:v>
+                  <c:v>14.340382569324801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.186168324132801</c:v>
+                  <c:v>14.139188515473499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.581224318616801</c:v>
+                  <c:v>12.2578604162109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.9850925880929</c:v>
+                  <c:v>11.7032177625975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.599387121496701</c:v>
+                  <c:v>11.407857539861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,7 +570,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D76F-455D-B7B0-08FFBBC7D0FE}"/>
+              <c16:uniqueId val="{00000004-5F2B-425B-A30F-0255E3D4E34A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -750,7 +583,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mobilenet0.25_epoch10_b8_lr1e-05_optAdam Validation Loss</c:v>
+                  <c:v>mobilenet0.25_epoch10_b8_lr0.01_optAdam Validation Loss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -758,9 +591,8 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -768,45 +600,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$2:$G$11</c:f>
@@ -814,34 +607,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>33.667647622386802</c:v>
+                  <c:v>16.911308833530899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.625210756100401</c:v>
+                  <c:v>15.039329866444801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.869502701374302</c:v>
+                  <c:v>14.483214319122499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.842813853151299</c:v>
+                  <c:v>13.338630947266999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.029690464090798</c:v>
+                  <c:v>13.1238210497435</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.299794896048699</c:v>
+                  <c:v>13.0410101769133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.714900662439899</c:v>
+                  <c:v>12.2887184827224</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.3012052026594</c:v>
+                  <c:v>10.0503336864969</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.748533628001699</c:v>
+                  <c:v>9.8706285509263392</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.252584309311299</c:v>
+                  <c:v>9.4879056815034808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,7 +642,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D76F-455D-B7B0-08FFBBC7D0FE}"/>
+              <c16:uniqueId val="{00000005-5F2B-425B-A30F-0255E3D4E34A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -862,7 +655,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Resnet50_epoch10_b8_lr0.0001_optAdam Train Loss</c:v>
+                  <c:v>mobilenet0.25_epoch10_b8_lr0.1_optAdam Train Loss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -870,7 +663,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -879,45 +674,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$H$2:$H$11</c:f>
@@ -925,31 +681,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>86.6037380739768</c:v>
+                  <c:v>33.085721132918103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.180700882621402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.832078871519599</c:v>
+                  <c:v>27.086075516220902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.546110884743399</c:v>
+                  <c:v>27.129420281937399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.604778574120097</c:v>
+                  <c:v>27.140609375438299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.977378138844202</c:v>
+                  <c:v>27.149437611147398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.154771196175801</c:v>
+                  <c:v>27.159351748709302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.951067160375299</c:v>
+                  <c:v>26.9327067247829</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.2944672107696</c:v>
+                  <c:v>26.8667406280588</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.1421645354039</c:v>
+                  <c:v>26.8866383274149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,7 +716,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D76F-455D-B7B0-08FFBBC7D0FE}"/>
+              <c16:uniqueId val="{00000006-5F2B-425B-A30F-0255E3D4E34A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -970,7 +729,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Resnet50_epoch10_b8_lr0.0001_optAdam Validation Loss</c:v>
+                  <c:v>mobilenet0.25_epoch10_b8_lr0.1_optAdam Validation Loss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -978,9 +737,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -988,45 +748,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$11</c:f>
@@ -1034,34 +755,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14.7740897273424</c:v>
+                  <c:v>357.89812507392401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.8649865751681</c:v>
+                  <c:v>26.837553812109899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2162742185296391</c:v>
+                  <c:v>26.866598052267701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6977989258973398</c:v>
+                  <c:v>26.919627308104999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4813654185822198</c:v>
+                  <c:v>27.019725740326098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2504580191203498</c:v>
+                  <c:v>26.779939272388901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7851948464138898</c:v>
+                  <c:v>26.748355391602999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0932225174044898</c:v>
+                  <c:v>26.704877468369698</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7317031762614699</c:v>
+                  <c:v>26.706763119430999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7492915317878897</c:v>
+                  <c:v>26.590918369174702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1069,7 +790,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D76F-455D-B7B0-08FFBBC7D0FE}"/>
+              <c16:uniqueId val="{00000007-5F2B-425B-A30F-0255E3D4E34A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1082,7 +803,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Resnet50_epoch10_b8_lr0.001_optAdam Train Loss</c:v>
+                  <c:v>mobilenet0.25_epoch10_b8_lr1e-05_optAdam Train Loss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1090,7 +811,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="002060"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1099,77 +822,41 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40.472926347151997</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.665264679038</c:v>
+                  <c:v>36.166020168280703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.372315636332701</c:v>
+                  <c:v>33.944820849791803</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.543689232065001</c:v>
+                  <c:v>32.5231732418818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.255481397513201</c:v>
+                  <c:v>31.6207471041945</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.4024685865603</c:v>
+                  <c:v>30.793402067622701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.9512837573608</c:v>
+                  <c:v>30.186168324132801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.4386691887926</c:v>
+                  <c:v>29.581224318616801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.031360838354001</c:v>
+                  <c:v>28.9850925880929</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.7220443372400602</c:v>
+                  <c:v>28.599387121496701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,7 +864,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D76F-455D-B7B0-08FFBBC7D0FE}"/>
+              <c16:uniqueId val="{00000008-5F2B-425B-A30F-0255E3D4E34A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1190,7 +877,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Resnet50_epoch10_b8_lr0.001_optAdam Validation Loss</c:v>
+                  <c:v>mobilenet0.25_epoch10_b8_lr1e-05_optAdam Validation Loss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1198,9 +885,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="002060"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1208,45 +896,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$K$2:$K$11</c:f>
@@ -1254,34 +903,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>19.625504795808901</c:v>
+                  <c:v>33.667647622386802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.215343451648</c:v>
+                  <c:v>30.625210756100401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.5700330526932</c:v>
+                  <c:v>28.869502701374302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.956681087150301</c:v>
+                  <c:v>27.842813853151299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.3614058553802</c:v>
+                  <c:v>27.029690464090798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.5170696566563</c:v>
+                  <c:v>26.299794896048699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.405829883510201</c:v>
+                  <c:v>25.714900662439899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.4608992367797704</c:v>
+                  <c:v>25.3012052026594</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2679863361098</c:v>
+                  <c:v>24.748533628001699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9649561961985498</c:v>
+                  <c:v>24.252584309311299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,7 +938,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-D76F-455D-B7B0-08FFBBC7D0FE}"/>
+              <c16:uniqueId val="{00000009-5F2B-425B-A30F-0255E3D4E34A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1302,7 +951,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Resnet50_epoch10_b8_lr1e-05_optAdam Train Loss</c:v>
+                  <c:v>Resnet50_epoch10_b8_lr0.0001_optAdam Train Loss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1310,7 +959,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1319,45 +970,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$L$2:$L$11</c:f>
@@ -1365,34 +977,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>103.666217235304</c:v>
+                  <c:v>86.6037380739768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95.289500959171207</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.3508196232481</c:v>
+                  <c:v>55.832078871519599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.4834963460886</c:v>
+                  <c:v>48.546110884743399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.145743198276307</c:v>
+                  <c:v>42.604778574120097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.515510908565105</c:v>
+                  <c:v>37.977378138844202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.851246667944807</c:v>
+                  <c:v>34.154771196175801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.521060866598702</c:v>
+                  <c:v>30.951067160375299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.359007953857002</c:v>
+                  <c:v>28.2944672107696</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.162738877053499</c:v>
+                  <c:v>26.1421645354039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,7 +1012,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-D76F-455D-B7B0-08FFBBC7D0FE}"/>
+              <c16:uniqueId val="{0000000A-5F2B-425B-A30F-0255E3D4E34A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1413,7 +1025,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Resnet50_epoch10_b8_lr1e-05_optAdam Validation Loss</c:v>
+                  <c:v>Resnet50_epoch10_b8_lr0.0001_optAdam Validation Loss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1421,9 +1033,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1431,45 +1044,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$M$2:$M$11</c:f>
@@ -1477,34 +1051,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24.3550763041336</c:v>
+                  <c:v>14.7740897273424</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.6080743155864</c:v>
+                  <c:v>10.8649865751681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.1860406561667</c:v>
+                  <c:v>9.2162742185296391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.5853401178158</c:v>
+                  <c:v>8.6977989258973398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.123263154710999</c:v>
+                  <c:v>8.4813654185822198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.320343675080199</c:v>
+                  <c:v>8.2504580191203498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.2225469298984</c:v>
+                  <c:v>7.7851948464138898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.734980181877599</c:v>
+                  <c:v>7.0932225174044898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.2604134808415</c:v>
+                  <c:v>6.7317031762614699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.547948376732499</c:v>
+                  <c:v>6.7492915317878897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,7 +1086,605 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-D76F-455D-B7B0-08FFBBC7D0FE}"/>
+              <c16:uniqueId val="{0000000B-5F2B-425B-A30F-0255E3D4E34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resnet50_epoch10_b8_lr0.001_optAdam Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.665264679038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.372315636332701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.543689232065001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.255481397513201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.4024685865603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.9512837573608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.4386691887926</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.031360838354001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7220443372400602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-5F2B-425B-A30F-0255E3D4E34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resnet50_epoch10_b8_lr0.001_optAdam Validation Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.625504795808901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.215343451648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5700330526932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.956681087150301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.3614058553802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.5170696566563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.405829883510201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4608992367797704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2679863361098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9649561961985498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-5F2B-425B-A30F-0255E3D4E34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resnet50_epoch10_b8_lr0.01_optAdam Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>35.238511313562803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.24072957261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.688885396311701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.781772991885301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.9903975710365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.1973170930554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.014780200786401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.6915268187197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.947736455787</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.311284924516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-5F2B-425B-A30F-0255E3D4E34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resnet50_epoch10_b8_lr0.01_optAdam Validation Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>22.517228437506599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.861430843424301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.286365897018701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.602354274773401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.947926829320298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.625316610987799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.194981098174999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.470604844715201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.019499033874601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.628890348517301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-5F2B-425B-A30F-0255E3D4E34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resnet50_epoch10_b8_lr0.1_optAdam Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>121.659866315237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.065098793610197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.605871295336598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.592477175019503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233.194467760761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.126610701128499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.867306676710598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.045193577405001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.646144110223499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.022273048851002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-5F2B-425B-A30F-0255E3D4E34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resnet50_epoch10_b8_lr0.1_optAdam Validation Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>27.5903157299349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>346.89457492946798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.548904638112703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285.42157190927003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.815207090436999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.076968963101699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.745550481428999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.5802721029482</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.565697711447001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.8779700942661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-5F2B-425B-A30F-0255E3D4E34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resnet50_epoch10_b8_lr1e-05_optAdam Train Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>103.666217235304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.289500959171207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.3508196232481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.4834963460886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.145743198276307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.515510908565105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.851246667944807</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.521060866598702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.359007953857002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.162738877053499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-5F2B-425B-A30F-0255E3D4E34A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resnet50_epoch10_b8_lr1e-05_optAdam Validation Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.3550763041336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.6080743155864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.1860406561667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5853401178158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.123263154710999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.320343675080199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.2225469298984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.734980181877599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.2604134808415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.547948376732499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-5F2B-425B-A30F-0255E3D4E34A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1525,11 +1697,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="799655919"/>
-        <c:axId val="799660911"/>
+        <c:axId val="2131927200"/>
+        <c:axId val="2131927616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="799655919"/>
+        <c:axId val="2131927200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1572,7 +1744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="799660911"/>
+        <c:crossAx val="2131927616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1580,7 +1752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="799660911"/>
+        <c:axId val="2131927616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,7 +1803,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="799655919"/>
+        <c:crossAx val="2131927200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2271,23 +2443,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>395285</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>187993</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>137862</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613DF3B6-4894-4D4F-8F2C-D24F8C6124F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BB9350-74E0-4A6B-803F-001B0FDA2014}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,468 +2478,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>mobilenet0.25_epoch10_b8_lr0.0001_optAdam Train Accuracy</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>mobilenet0.25_epoch10_b8_lr0.0001_optAdam Validation Accuracy</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>mobilenet0.25_epoch10_b8_lr0.001_optAdam Train Accuracy</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>mobilenet0.25_epoch10_b8_lr0.001_optAdam Validation Accuracy</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>mobilenet0.25_epoch10_b8_lr1e-05_optAdam Train Accuracy</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>mobilenet0.25_epoch10_b8_lr1e-05_optAdam Validation Accuracy</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Resnet50_epoch10_b8_lr0.0001_optAdam Train Accuracy</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>Resnet50_epoch10_b8_lr0.0001_optAdam Validation Accuracy</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>Resnet50_epoch10_b8_lr0.001_optAdam Train Accuracy</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>Resnet50_epoch10_b8_lr0.001_optAdam Validation Accuracy</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>Resnet50_epoch10_b8_lr1e-05_optAdam Train Accuracy</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>Resnet50_epoch10_b8_lr1e-05_optAdam Validation Accuracy</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2">
-            <v>1.1094422091341101</v>
-          </cell>
-          <cell r="C2">
-            <v>0.36191119993776499</v>
-          </cell>
-          <cell r="D2">
-            <v>3.9940649021457699</v>
-          </cell>
-          <cell r="E2">
-            <v>12.155477515828499</v>
-          </cell>
-          <cell r="F2">
-            <v>1.0944833016306399</v>
-          </cell>
-          <cell r="G2">
-            <v>0.61237693912500002</v>
-          </cell>
-          <cell r="H2">
-            <v>8.5728147677317104</v>
-          </cell>
-          <cell r="I2">
-            <v>18.468233527076901</v>
-          </cell>
-          <cell r="J2">
-            <v>1.80166471570221E-2</v>
-          </cell>
-          <cell r="K2">
-            <v>0</v>
-          </cell>
-          <cell r="L2">
-            <v>0.42343057151042801</v>
-          </cell>
-          <cell r="M2">
-            <v>1.1924167465286</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3">
-            <v>0.65257725582829695</v>
-          </cell>
-          <cell r="C3">
-            <v>1.3891044218419899</v>
-          </cell>
-          <cell r="D3">
-            <v>18.612901569747901</v>
-          </cell>
-          <cell r="E3">
-            <v>24.503143663778399</v>
-          </cell>
-          <cell r="F3">
-            <v>0.93740004738532401</v>
-          </cell>
-          <cell r="G3">
-            <v>1.1825206118703799</v>
-          </cell>
-          <cell r="H3">
-            <v>28.0688613351155</v>
-          </cell>
-          <cell r="I3">
-            <v>25.778966075956198</v>
-          </cell>
-          <cell r="J3">
-            <v>2.2117993982045201</v>
-          </cell>
-          <cell r="K3">
-            <v>9.8986870382524792</v>
-          </cell>
-          <cell r="L3">
-            <v>0.158385514532666</v>
-          </cell>
-          <cell r="M3">
-            <v>0.33446850234569198</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4">
-            <v>7.0405268588695096</v>
-          </cell>
-          <cell r="C4">
-            <v>10.0152327682655</v>
-          </cell>
-          <cell r="D4">
-            <v>27.596741729262199</v>
-          </cell>
-          <cell r="E4">
-            <v>27.053781332615799</v>
-          </cell>
-          <cell r="F4">
-            <v>1.57147681018095</v>
-          </cell>
-          <cell r="G4">
-            <v>1.53565004597745</v>
-          </cell>
-          <cell r="H4">
-            <v>36.219972779807399</v>
-          </cell>
-          <cell r="I4">
-            <v>43.748249134661897</v>
-          </cell>
-          <cell r="J4">
-            <v>11.5082323581137</v>
-          </cell>
-          <cell r="K4">
-            <v>15.629154458976</v>
-          </cell>
-          <cell r="L4">
-            <v>0.55367276106030805</v>
-          </cell>
-          <cell r="M4">
-            <v>5.7969354714235504</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5">
-            <v>15.504254906224601</v>
-          </cell>
-          <cell r="C5">
-            <v>20.347658056469299</v>
-          </cell>
-          <cell r="D5">
-            <v>32.4466882847032</v>
-          </cell>
-          <cell r="E5">
-            <v>28.987131675202001</v>
-          </cell>
-          <cell r="F5">
-            <v>1.27691029929706</v>
-          </cell>
-          <cell r="G5">
-            <v>0.57427926161114895</v>
-          </cell>
-          <cell r="H5">
-            <v>41.556877257982002</v>
-          </cell>
-          <cell r="I5">
-            <v>42.549168603853403</v>
-          </cell>
-          <cell r="J5">
-            <v>16.779771284031</v>
-          </cell>
-          <cell r="K5">
-            <v>19.975781088607299</v>
-          </cell>
-          <cell r="L5">
-            <v>1.7455939026626299</v>
-          </cell>
-          <cell r="M5">
-            <v>6.3754450927043003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6">
-            <v>21.520791201722101</v>
-          </cell>
-          <cell r="C6">
-            <v>21.544567604121099</v>
-          </cell>
-          <cell r="D6">
-            <v>34.641909434503603</v>
-          </cell>
-          <cell r="E6">
-            <v>37.461600273911202</v>
-          </cell>
-          <cell r="F6">
-            <v>6.7902232639589902E-2</v>
-          </cell>
-          <cell r="G6">
-            <v>0.37732166859396399</v>
-          </cell>
-          <cell r="H6">
-            <v>45.311753898626698</v>
-          </cell>
-          <cell r="I6">
-            <v>45.859306809590699</v>
-          </cell>
-          <cell r="J6">
-            <v>22.2916844977496</v>
-          </cell>
-          <cell r="K6">
-            <v>29.9083299482933</v>
-          </cell>
-          <cell r="L6">
-            <v>3.3769521261612301</v>
-          </cell>
-          <cell r="M6">
-            <v>11.0110371232304</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7">
-            <v>26.2828289044222</v>
-          </cell>
-          <cell r="C7">
-            <v>21.517918476023802</v>
-          </cell>
-          <cell r="D7">
-            <v>39.373584243851397</v>
-          </cell>
-          <cell r="E7">
-            <v>37.353114490753697</v>
-          </cell>
-          <cell r="F7">
-            <v>2.6685674987539501E-2</v>
-          </cell>
-          <cell r="G7">
-            <v>0.125153539476696</v>
-          </cell>
-          <cell r="H7">
-            <v>47.021631164645299</v>
-          </cell>
-          <cell r="I7">
-            <v>43.510297676287998</v>
-          </cell>
-          <cell r="J7">
-            <v>25.252027483422701</v>
-          </cell>
-          <cell r="K7">
-            <v>22.5206283889956</v>
-          </cell>
-          <cell r="L7">
-            <v>6.04435731054373</v>
-          </cell>
-          <cell r="M7">
-            <v>9.1625461466841802</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8">
-            <v>28.586597386501801</v>
-          </cell>
-          <cell r="C8">
-            <v>23.9750428682669</v>
-          </cell>
-          <cell r="D8">
-            <v>38.850535586756799</v>
-          </cell>
-          <cell r="E8">
-            <v>36.494410965418098</v>
-          </cell>
-          <cell r="F8">
-            <v>8.6456781989310505E-2</v>
-          </cell>
-          <cell r="G8">
-            <v>0.57063236476864998</v>
-          </cell>
-          <cell r="H8">
-            <v>49.2685303264753</v>
-          </cell>
-          <cell r="I8">
-            <v>47.571638012732897</v>
-          </cell>
-          <cell r="J8">
-            <v>26.913245013593201</v>
-          </cell>
-          <cell r="K8">
-            <v>25.269870924933102</v>
-          </cell>
-          <cell r="L8">
-            <v>10.339500624093899</v>
-          </cell>
-          <cell r="M8">
-            <v>19.8707942432255</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="B9">
-            <v>31.857459225033399</v>
-          </cell>
-          <cell r="C9">
-            <v>30.512310012962399</v>
-          </cell>
-          <cell r="D9">
-            <v>42.619342963689903</v>
-          </cell>
-          <cell r="E9">
-            <v>44.519702802718697</v>
-          </cell>
-          <cell r="F9">
-            <v>0.32613763944097601</v>
-          </cell>
-          <cell r="G9">
-            <v>1.83913125642083</v>
-          </cell>
-          <cell r="H9">
-            <v>51.654156562574599</v>
-          </cell>
-          <cell r="I9">
-            <v>52.451112313924902</v>
-          </cell>
-          <cell r="J9">
-            <v>34.133811194534601</v>
-          </cell>
-          <cell r="K9">
-            <v>34.5595762605369</v>
-          </cell>
-          <cell r="L9">
-            <v>16.5805121928814</v>
-          </cell>
-          <cell r="M9">
-            <v>14.9610179596644</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="B10">
-            <v>34.341781454100001</v>
-          </cell>
-          <cell r="C10">
-            <v>33.881484716607098</v>
-          </cell>
-          <cell r="D10">
-            <v>44.242530210924798</v>
-          </cell>
-          <cell r="E10">
-            <v>43.871012136959401</v>
-          </cell>
-          <cell r="F10">
-            <v>0.98748108507992205</v>
-          </cell>
-          <cell r="G10">
-            <v>2.13567935402348</v>
-          </cell>
-          <cell r="H10">
-            <v>51.253416786327499</v>
-          </cell>
-          <cell r="I10">
-            <v>51.136163200720297</v>
-          </cell>
-          <cell r="J10">
-            <v>36.001438507815799</v>
-          </cell>
-          <cell r="K10">
-            <v>37.796775021341503</v>
-          </cell>
-          <cell r="L10">
-            <v>19.835308142957999</v>
-          </cell>
-          <cell r="M10">
-            <v>13.6532833226132</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="B11">
-            <v>36.433316464152199</v>
-          </cell>
-          <cell r="C11">
-            <v>36.274627887963199</v>
-          </cell>
-          <cell r="D11">
-            <v>46.742787694700802</v>
-          </cell>
-          <cell r="E11">
-            <v>48.698255497499403</v>
-          </cell>
-          <cell r="F11">
-            <v>2.03079215871223</v>
-          </cell>
-          <cell r="G11">
-            <v>3.6838036997978398</v>
-          </cell>
-          <cell r="H11">
-            <v>52.286222095301902</v>
-          </cell>
-          <cell r="I11">
-            <v>51.451911776286103</v>
-          </cell>
-          <cell r="J11">
-            <v>38.793831930747203</v>
-          </cell>
-          <cell r="K11">
-            <v>38.5507310506257</v>
-          </cell>
-          <cell r="L11">
-            <v>23.3175586495584</v>
-          </cell>
-          <cell r="M11">
-            <v>22.2641318997285</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3055,15 +2765,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3103,8 +2813,32 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3121,29 +2855,55 @@
         <v>14.7363807044414</v>
       </c>
       <c r="F2" s="1">
+        <v>22.488575314142601</v>
+      </c>
+      <c r="G2" s="1">
+        <v>16.911308833530899</v>
+      </c>
+      <c r="H2" s="1">
+        <v>33.085721132918103</v>
+      </c>
+      <c r="I2" s="1">
+        <v>357.89812507392401</v>
+      </c>
+      <c r="J2" s="1">
         <v>40.472926347151997</v>
       </c>
-      <c r="G2" s="1">
+      <c r="K2" s="1">
         <v>33.667647622386802</v>
       </c>
-      <c r="H2" s="1">
+      <c r="L2" s="1">
         <v>86.6037380739768</v>
       </c>
-      <c r="I2" s="1">
+      <c r="M2" s="1">
         <v>14.7740897273424</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1">
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1">
         <v>19.625504795808901</v>
       </c>
-      <c r="L2" s="1">
+      <c r="P2" s="1">
+        <v>35.238511313562803</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>22.517228437506599</v>
+      </c>
+      <c r="R2" s="1">
+        <v>121.659866315237</v>
+      </c>
+      <c r="S2" s="1">
+        <v>27.5903157299349</v>
+      </c>
+      <c r="T2" s="1">
         <v>103.666217235304</v>
       </c>
-      <c r="M2" s="1">
+      <c r="U2" s="1">
         <v>24.3550763041336</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3153,34 +2913,62 @@
       <c r="C3" s="1">
         <v>19.901888580796101</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" s="1">
         <v>11.538950018260699</v>
       </c>
       <c r="F3" s="1">
+        <v>16.688840004227899</v>
+      </c>
+      <c r="G3" s="1">
+        <v>15.039329866444801</v>
+      </c>
+      <c r="H3" s="1">
+        <v>27.180700882621402</v>
+      </c>
+      <c r="I3" s="1">
+        <v>26.837553812109899</v>
+      </c>
+      <c r="J3" s="1">
         <v>36.166020168280703</v>
       </c>
-      <c r="G3" s="1">
+      <c r="K3" s="1">
         <v>30.625210756100401</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1">
         <v>10.8649865751681</v>
       </c>
-      <c r="J3" s="1">
+      <c r="N3" s="1">
         <v>20.665264679038</v>
       </c>
-      <c r="K3" s="1">
+      <c r="O3" s="1">
         <v>14.215343451648</v>
       </c>
-      <c r="L3" s="1">
+      <c r="P3" s="1">
+        <v>21.24072957261</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>20.861430843424301</v>
+      </c>
+      <c r="R3" s="1">
+        <v>32.065098793610197</v>
+      </c>
+      <c r="S3" s="1">
+        <v>346.89457492946798</v>
+      </c>
+      <c r="T3" s="1">
         <v>95.289500959171207</v>
       </c>
-      <c r="M3" s="1">
+      <c r="U3" s="1">
         <v>20.6080743155864</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3197,31 +2985,55 @@
         <v>10.634756111950599</v>
       </c>
       <c r="F4" s="1">
+        <v>15.499607188361001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>14.483214319122499</v>
+      </c>
+      <c r="H4" s="1">
+        <v>27.086075516220902</v>
+      </c>
+      <c r="I4" s="1">
+        <v>26.866598052267701</v>
+      </c>
+      <c r="J4" s="1">
         <v>33.944820849791803</v>
       </c>
-      <c r="G4" s="1">
+      <c r="K4" s="1">
         <v>28.869502701374302</v>
       </c>
-      <c r="H4" s="1">
+      <c r="L4" s="1">
         <v>55.832078871519599</v>
       </c>
-      <c r="I4" s="1">
+      <c r="M4" s="1">
         <v>9.2162742185296391</v>
       </c>
-      <c r="J4" s="1">
+      <c r="N4" s="1">
         <v>16.372315636332701</v>
       </c>
-      <c r="K4" s="1">
+      <c r="O4" s="1">
         <v>12.5700330526932</v>
       </c>
-      <c r="L4" s="1">
+      <c r="P4" s="1">
+        <v>19.688885396311701</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>19.286365897018701</v>
+      </c>
+      <c r="R4" s="1">
+        <v>33.605871295336598</v>
+      </c>
+      <c r="S4" s="1">
+        <v>52.548904638112703</v>
+      </c>
+      <c r="T4" s="1">
         <v>91.3508196232481</v>
       </c>
-      <c r="M4" s="1">
+      <c r="U4" s="1">
         <v>18.1860406561667</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3238,31 +3050,55 @@
         <v>9.9297592950903795</v>
       </c>
       <c r="F5" s="1">
+        <v>14.966641082526699</v>
+      </c>
+      <c r="G5" s="1">
+        <v>13.338630947266999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>27.129420281937399</v>
+      </c>
+      <c r="I5" s="1">
+        <v>26.919627308104999</v>
+      </c>
+      <c r="J5" s="1">
         <v>32.5231732418818</v>
       </c>
-      <c r="G5" s="1">
+      <c r="K5" s="1">
         <v>27.842813853151299</v>
       </c>
-      <c r="H5" s="1">
+      <c r="L5" s="1">
         <v>48.546110884743399</v>
       </c>
-      <c r="I5" s="1">
+      <c r="M5" s="1">
         <v>8.6977989258973398</v>
       </c>
-      <c r="J5" s="1">
+      <c r="N5" s="1">
         <v>14.543689232065001</v>
       </c>
-      <c r="K5" s="1">
+      <c r="O5" s="1">
         <v>12.956681087150301</v>
       </c>
-      <c r="L5" s="1">
+      <c r="P5" s="1">
+        <v>18.781772991885301</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>16.602354274773401</v>
+      </c>
+      <c r="R5" s="1">
+        <v>60.592477175019503</v>
+      </c>
+      <c r="S5" s="1">
+        <v>285.42157190927003</v>
+      </c>
+      <c r="T5" s="1">
         <v>88.4834963460886</v>
       </c>
-      <c r="M5" s="1">
+      <c r="U5" s="1">
         <v>16.5853401178158</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3279,31 +3115,55 @@
         <v>9.3561539501877302</v>
       </c>
       <c r="F6" s="1">
+        <v>14.655045487125401</v>
+      </c>
+      <c r="G6" s="1">
+        <v>13.1238210497435</v>
+      </c>
+      <c r="H6" s="1">
+        <v>27.140609375438299</v>
+      </c>
+      <c r="I6" s="1">
+        <v>27.019725740326098</v>
+      </c>
+      <c r="J6" s="1">
         <v>31.6207471041945</v>
       </c>
-      <c r="G6" s="1">
+      <c r="K6" s="1">
         <v>27.029690464090798</v>
       </c>
-      <c r="H6" s="1">
+      <c r="L6" s="1">
         <v>42.604778574120097</v>
       </c>
-      <c r="I6" s="1">
+      <c r="M6" s="1">
         <v>8.4813654185822198</v>
       </c>
-      <c r="J6" s="1">
+      <c r="N6" s="1">
         <v>13.255481397513201</v>
       </c>
-      <c r="K6" s="1">
+      <c r="O6" s="1">
         <v>11.3614058553802</v>
       </c>
-      <c r="L6" s="1">
+      <c r="P6" s="1">
+        <v>17.9903975710365</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>17.947926829320298</v>
+      </c>
+      <c r="R6" s="1">
+        <v>233.194467760761</v>
+      </c>
+      <c r="S6" s="1">
+        <v>61.815207090436999</v>
+      </c>
+      <c r="T6" s="1">
         <v>86.145743198276307</v>
       </c>
-      <c r="M6" s="1">
+      <c r="U6" s="1">
         <v>15.123263154710999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3320,31 +3180,55 @@
         <v>8.8432697427939093</v>
       </c>
       <c r="F7" s="1">
+        <v>14.340382569324801</v>
+      </c>
+      <c r="G7" s="1">
+        <v>13.0410101769133</v>
+      </c>
+      <c r="H7" s="1">
+        <v>27.149437611147398</v>
+      </c>
+      <c r="I7" s="1">
+        <v>26.779939272388901</v>
+      </c>
+      <c r="J7" s="1">
         <v>30.793402067622701</v>
       </c>
-      <c r="G7" s="1">
+      <c r="K7" s="1">
         <v>26.299794896048699</v>
       </c>
-      <c r="H7" s="1">
+      <c r="L7" s="1">
         <v>37.977378138844202</v>
       </c>
-      <c r="I7" s="1">
+      <c r="M7" s="1">
         <v>8.2504580191203498</v>
       </c>
-      <c r="J7" s="1">
+      <c r="N7" s="1">
         <v>12.4024685865603</v>
       </c>
-      <c r="K7" s="1">
+      <c r="O7" s="1">
         <v>10.5170696566563</v>
       </c>
-      <c r="L7" s="1">
+      <c r="P7" s="1">
+        <v>18.1973170930554</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>16.625316610987799</v>
+      </c>
+      <c r="R7" s="1">
+        <v>50.126610701128499</v>
+      </c>
+      <c r="S7" s="1">
+        <v>27.076968963101699</v>
+      </c>
+      <c r="T7" s="1">
         <v>84.515510908565105</v>
       </c>
-      <c r="M7" s="1">
+      <c r="U7" s="1">
         <v>14.320343675080199</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3361,31 +3245,55 @@
         <v>8.7026051112583591</v>
       </c>
       <c r="F8" s="1">
+        <v>14.139188515473499</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12.2887184827224</v>
+      </c>
+      <c r="H8" s="1">
+        <v>27.159351748709302</v>
+      </c>
+      <c r="I8" s="1">
+        <v>26.748355391602999</v>
+      </c>
+      <c r="J8" s="1">
         <v>30.186168324132801</v>
       </c>
-      <c r="G8" s="1">
+      <c r="K8" s="1">
         <v>25.714900662439899</v>
       </c>
-      <c r="H8" s="1">
+      <c r="L8" s="1">
         <v>34.154771196175801</v>
       </c>
-      <c r="I8" s="1">
+      <c r="M8" s="1">
         <v>7.7851948464138898</v>
       </c>
-      <c r="J8" s="1">
+      <c r="N8" s="1">
         <v>11.9512837573608</v>
       </c>
-      <c r="K8" s="1">
+      <c r="O8" s="1">
         <v>10.405829883510201</v>
       </c>
-      <c r="L8" s="1">
+      <c r="P8" s="1">
+        <v>18.014780200786401</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>22.194981098174999</v>
+      </c>
+      <c r="R8" s="1">
+        <v>75.867306676710598</v>
+      </c>
+      <c r="S8" s="1">
+        <v>33.745550481428999</v>
+      </c>
+      <c r="T8" s="1">
         <v>82.851246667944807</v>
       </c>
-      <c r="M8" s="1">
+      <c r="U8" s="1">
         <v>13.2225469298984</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3395,36 +3303,62 @@
       <c r="C9" s="1">
         <v>12.675656004722001</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E9" s="1">
         <v>7.7338046694394196</v>
       </c>
       <c r="F9" s="1">
+        <v>12.2578604162109</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10.0503336864969</v>
+      </c>
+      <c r="H9" s="1">
+        <v>26.9327067247829</v>
+      </c>
+      <c r="I9" s="1">
+        <v>26.704877468369698</v>
+      </c>
+      <c r="J9" s="1">
         <v>29.581224318616801</v>
       </c>
-      <c r="G9" s="1">
+      <c r="K9" s="1">
         <v>25.3012052026594</v>
       </c>
-      <c r="H9" s="1">
+      <c r="L9" s="1">
         <v>30.951067160375299</v>
       </c>
-      <c r="I9" s="1">
+      <c r="M9" s="1">
         <v>7.0932225174044898</v>
       </c>
-      <c r="J9" s="1">
+      <c r="N9" s="1">
         <v>10.4386691887926</v>
       </c>
-      <c r="K9" s="1">
+      <c r="O9" s="1">
         <v>8.4608992367797704</v>
       </c>
-      <c r="L9" s="1">
+      <c r="P9" s="1">
+        <v>15.6915268187197</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>13.470604844715201</v>
+      </c>
+      <c r="R9" s="1">
+        <v>33.045193577405001</v>
+      </c>
+      <c r="S9" s="1">
+        <v>21.5802721029482</v>
+      </c>
+      <c r="T9" s="1">
         <v>81.521060866598702</v>
       </c>
-      <c r="M9" s="1">
+      <c r="U9" s="1">
         <v>12.734980181877599</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3441,31 +3375,55 @@
         <v>7.5851063121179596</v>
       </c>
       <c r="F10" s="1">
+        <v>11.7032177625975</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9.8706285509263392</v>
+      </c>
+      <c r="H10" s="1">
+        <v>26.8667406280588</v>
+      </c>
+      <c r="I10" s="1">
+        <v>26.706763119430999</v>
+      </c>
+      <c r="J10" s="1">
         <v>28.9850925880929</v>
       </c>
-      <c r="G10" s="1">
+      <c r="K10" s="1">
         <v>24.748533628001699</v>
       </c>
-      <c r="H10" s="1">
+      <c r="L10" s="1">
         <v>28.2944672107696</v>
       </c>
-      <c r="I10" s="1">
+      <c r="M10" s="1">
         <v>6.7317031762614699</v>
       </c>
-      <c r="J10" s="1">
+      <c r="N10" s="1">
         <v>10.031360838354001</v>
       </c>
-      <c r="K10" s="1">
+      <c r="O10" s="1">
         <v>8.2679863361098</v>
       </c>
-      <c r="L10" s="1">
+      <c r="P10" s="1">
+        <v>14.947736455787</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>13.019499033874601</v>
+      </c>
+      <c r="R10" s="1">
+        <v>22.646144110223499</v>
+      </c>
+      <c r="S10" s="1">
+        <v>18.565697711447001</v>
+      </c>
+      <c r="T10" s="1">
         <v>80.359007953857002</v>
       </c>
-      <c r="M10" s="1">
+      <c r="U10" s="1">
         <v>12.2604134808415</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3482,27 +3440,51 @@
         <v>7.4154064751559901</v>
       </c>
       <c r="F11" s="1">
+        <v>11.407857539861</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9.4879056815034808</v>
+      </c>
+      <c r="H11" s="1">
+        <v>26.8866383274149</v>
+      </c>
+      <c r="I11" s="1">
+        <v>26.590918369174702</v>
+      </c>
+      <c r="J11" s="1">
         <v>28.599387121496701</v>
       </c>
-      <c r="G11" s="1">
+      <c r="K11" s="1">
         <v>24.252584309311299</v>
       </c>
-      <c r="H11" s="1">
+      <c r="L11" s="1">
         <v>26.1421645354039</v>
       </c>
-      <c r="I11" s="1">
+      <c r="M11" s="1">
         <v>6.7492915317878897</v>
       </c>
-      <c r="J11" s="1">
+      <c r="N11" s="1">
         <v>9.7220443372400602</v>
       </c>
-      <c r="K11" s="1">
+      <c r="O11" s="1">
         <v>7.9649561961985498</v>
       </c>
-      <c r="L11" s="1">
+      <c r="P11" s="1">
+        <v>14.311284924516</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>12.628890348517301</v>
+      </c>
+      <c r="R11" s="1">
+        <v>19.022273048851002</v>
+      </c>
+      <c r="S11" s="1">
+        <v>16.8779700942661</v>
+      </c>
+      <c r="T11" s="1">
         <v>79.162738877053499</v>
       </c>
-      <c r="M11" s="1">
+      <c r="U11" s="1">
         <v>11.547948376732499</v>
       </c>
     </row>
